--- a/ML/respuestas_formulario.xlsx
+++ b/ML/respuestas_formulario.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,8 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.
-</t>
+          <t>Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.</t>
         </is>
       </c>
     </row>
@@ -466,8 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recuerdo mejor la información cuando la leo en voz alta o la escribo a mano.
-</t>
+          <t>Recuerdo mejor la información cuando la leo en voz alta o la escribo a mano.</t>
         </is>
       </c>
     </row>
@@ -479,8 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Me considero un estudiante responsable y organizado. Me gusta tener un plan de estudio y seguirlo.
-</t>
+          <t>Me considero un estudiante responsable y organizado. Me gusta tener un plan de estudio y seguirlo.</t>
         </is>
       </c>
     </row>
@@ -492,8 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Disfruto más las actividades en clase que me permiten participar activamente, como debates o proyectos grupales.
-</t>
+          <t>Disfruto más las actividades en clase que me permiten participar activamente, como debates o proyectos grupales.</t>
         </is>
       </c>
     </row>
@@ -505,8 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Me distrae fácilmente el ruido o el movimiento cuando estoy estudiando.
-</t>
+          <t>Me distrae fácilmente el ruido o el movimiento cuando estoy estudiando.</t>
         </is>
       </c>
     </row>
@@ -518,8 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tomo apuntes de forma organizada, utilizando títulos, subtítulos y viñetas. También suelo incluir diagramas o imágenes.
-</t>
+          <t>Tomo apuntes de forma organizada, utilizando títulos, subtítulos y viñetas. También suelo incluir diagramas o imágenes.</t>
         </is>
       </c>
     </row>
@@ -531,8 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilizo con mayor frecuencia libros de texto, artículos académicos y sitios web educativos para aprender.
-</t>
+          <t>Utilizo con mayor frecuencia libros de texto, artículos académicos y sitios web educativos para aprender.</t>
         </is>
       </c>
     </row>
@@ -544,8 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si tuviera que explicar un tema a alguien, lo haría de forma clara y concisa, utilizando ejemplos y analogías.
-</t>
+          <t>Si tuviera que explicar un tema a alguien, lo haría de forma clara y concisa, utilizando ejemplos y analogías.</t>
         </is>
       </c>
     </row>
@@ -557,8 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lo que me parece más difícil al aprender algo nuevo es mantener la concentración durante largos períodos de tiempo.
-</t>
+          <t>Lo que me parece más difícil al aprender algo nuevo es mantener la concentración durante largos períodos de tiempo.</t>
         </is>
       </c>
     </row>

--- a/ML/respuestas_formulario.xlsx
+++ b/ML/respuestas_formulario.xlsx
@@ -453,7 +453,8 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.</t>
+          <t xml:space="preserve">Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.
+</t>
         </is>
       </c>
     </row>
@@ -465,7 +466,8 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recuerdo mejor la información cuando la leo en voz alta o la escribo a mano.</t>
+          <t xml:space="preserve">Recuerdo mejor la información cuando la leo en voz alta o la escribo a mano.
+</t>
         </is>
       </c>
     </row>
@@ -477,7 +479,8 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Me considero un estudiante responsable y organizado. Me gusta tener un plan de estudio y seguirlo.</t>
+          <t xml:space="preserve">Me considero un estudiante responsable y organizado. Me gusta tener un plan de estudio y seguirlo.
+</t>
         </is>
       </c>
     </row>
@@ -489,7 +492,8 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Disfruto más las actividades en clase que me permiten participar activamente, como debates o proyectos grupales.</t>
+          <t xml:space="preserve">Disfruto más las actividades en clase que me permiten participar activamente, como debates o proyectos grupales.
+</t>
         </is>
       </c>
     </row>
@@ -501,7 +505,8 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Me distrae fácilmente el ruido o el movimiento cuando estoy estudiando.</t>
+          <t xml:space="preserve">Me distrae fácilmente el ruido o el movimiento cuando estoy estudiando.
+</t>
         </is>
       </c>
     </row>
@@ -513,7 +518,8 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tomo apuntes de forma organizada, utilizando títulos, subtítulos y viñetas. También suelo incluir diagramas o imágenes.</t>
+          <t xml:space="preserve">Tomo apuntes de forma organizada, utilizando títulos, subtítulos y viñetas. También suelo incluir diagramas o imágenes.
+</t>
         </is>
       </c>
     </row>
@@ -525,7 +531,8 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Utilizo con mayor frecuencia libros de texto, artículos académicos y sitios web educativos para aprender.</t>
+          <t xml:space="preserve">Utilizo con mayor frecuencia libros de texto, artículos académicos y sitios web educativos para aprender.
+</t>
         </is>
       </c>
     </row>
@@ -537,7 +544,8 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Si tuviera que explicar un tema a alguien, lo haría de forma clara y concisa, utilizando ejemplos y analogías.</t>
+          <t xml:space="preserve">Si tuviera que explicar un tema a alguien, lo haría de forma clara y concisa, utilizando ejemplos y analogías.
+</t>
         </is>
       </c>
     </row>
@@ -549,7 +557,8 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lo que me parece más difícil al aprender algo nuevo es mantener la concentración durante largos períodos de tiempo.</t>
+          <t xml:space="preserve">Lo que me parece más difícil al aprender algo nuevo es mantener la concentración durante largos períodos de tiempo.
+</t>
         </is>
       </c>
     </row>

--- a/ML/respuestas_formulario.xlsx
+++ b/ML/respuestas_formulario.xlsx
@@ -453,8 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.
-</t>
+          <t>Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.</t>
         </is>
       </c>
     </row>

--- a/ML/respuestas_formulario.xlsx
+++ b/ML/respuestas_formulario.xlsx
@@ -453,7 +453,8 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.</t>
+          <t xml:space="preserve">Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.
+</t>
         </is>
       </c>
     </row>

--- a/ML/respuestas_formulario.xlsx
+++ b/ML/respuestas_formulario.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,129 +448,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pregunta-uno</t>
+          <t>visual-uno</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.
-</t>
+          <t>ver</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pregunta-dos</t>
+          <t>visual-dos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recuerdo mejor la información cuando la leo en voz alta o la escribo a mano.
-</t>
+          <t>ver</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pregunta-tres</t>
+          <t>visual-tres</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Me considero un estudiante responsable y organizado. Me gusta tener un plan de estudio y seguirlo.
-</t>
+          <t>ver</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pregunta-cuatro</t>
+          <t>visual-cuatro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Disfruto más las actividades en clase que me permiten participar activamente, como debates o proyectos grupales.
-</t>
+          <t>ver</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pregunta-cinco</t>
+          <t>auditivo-cinco</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Me distrae fácilmente el ruido o el movimiento cuando estoy estudiando.
-</t>
+          <t>ver</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pregunta-seis</t>
+          <t>auditivo-seis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tomo apuntes de forma organizada, utilizando títulos, subtítulos y viñetas. También suelo incluir diagramas o imágenes.
-</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pregunta-siete</t>
+          <t>auditivo-siete</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilizo con mayor frecuencia libros de texto, artículos académicos y sitios web educativos para aprender.
-</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pregunta-ocho</t>
+          <t>kinestesico-ocho</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si tuviera que explicar un tema a alguien, lo haría de forma clara y concisa, utilizando ejemplos y analogías.
-</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pregunta-nueve</t>
+          <t>kinestesico-nueve</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lo que me parece más difícil al aprender algo nuevo es mantener la concentración durante largos períodos de tiempo.
-</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pregunta-diez</t>
+          <t>kinestesico-diez</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Utilizo diferentes estrategias para superar las dificultades al aprender, como dividir las tareas en partes más pequeñas, tomar descansos frecuentes y buscar ayuda de un tutor o profesor</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>

--- a/ML/respuestas_formulario.xlsx
+++ b/ML/respuestas_formulario.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>escuchr</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>jugr</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>voz</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>voz</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>escchar</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>imagen</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>imagen</t>
         </is>
       </c>
     </row>

--- a/ML/respuestas_formulario.xlsx
+++ b/ML/respuestas_formulario.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>escuchr</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jugr</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>ver</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>observar</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>caminar</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>voz</t>
+          <t>observar</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>voz</t>
+          <t>tocar</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>escchar</t>
+          <t>repetir</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>imagen</t>
+          <t>ver</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>imagen</t>
+          <t>gritar</t>
         </is>
       </c>
     </row>

--- a/ML/respuestas_formulario.xlsx
+++ b/ML/respuestas_formulario.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>escuchar</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jugar</t>
+          <t>escuchar</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>observar</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>caminar</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>observar</t>
+          <t>jugar</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tocar</t>
+          <t>voz</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>repetir</t>
+          <t>voz</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>voz</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gritar</t>
+          <t>voz</t>
         </is>
       </c>
     </row>
